--- a/datos/IndicadorInflacionSociosComerciales/IINFP.xlsx
+++ b/datos/IndicadorInflacionSociosComerciales/IINFP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f580ff3b5afa9ce/Documents/TEC/IX Semestre/Tópicos Avanzados de Producción/Proyecto Final de Investigación/Prueba_DatosMacroEconomicos/Datos/IndicadorInflacionSociosComerciales/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan\OneDrive - Estudiantes ITCR\0-tec\11avo semestre\Production advanced topics\Course project\git\proyecto_topicos1\datos\IndicadorInflacionSociosComerciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{7727EECE-2435-4B74-98A2-1D2A0B48C09F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E20E221F-3B1A-4307-8458-9234D5D300D2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD30375-FE87-43D6-97BD-A88FBD10A78F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE272305-AFAE-4334-82EC-35438F69B8FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CE272305-AFAE-4334-82EC-35438F69B8FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -487,9 +487,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65176C7-6B08-4F06-8457-0CF8F551B60C}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
   </cols>
@@ -825,7 +827,7 @@
         <v>2.4390414800000002</v>
       </c>
       <c r="R6" s="3">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
